--- a/vol2.xlsx
+++ b/vol2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +436,21 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>len_Wi_Hei_Wei</t>
+          <t>len_Wi_Hei_Wei_Pack</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>45x  120x80x210 cm  320 kg/plt</t>
+          <t>2x  40x50x60 cm  12 kg/ctn</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2x  80x98x100 cm  120 kg/plt</t>
         </is>
       </c>
     </row>

--- a/vol2.xlsx
+++ b/vol2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,23 +436,109 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Weight [4]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>len_Wi_Hei_Wei_Pack</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2x  40x50x60 cm  12 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2x  80x98x100 cm  120 kg/plt</t>
-        </is>
-      </c>
+      <c r="A3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12x  50x15x60 cm  17 kg/ctn</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.2208</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54x  120x80x12 cm  50 kg/plt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7.0008</v>
+      </c>
+      <c r="B5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vol2.xlsx
+++ b/vol2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Weight [4]</t>
+          <t>Total Weight</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -465,7 +465,7 @@
         <v>0.24</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,10 +485,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -502,43 +502,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12x  50x15x60 cm  17 kg/ctn</t>
+          <t>5x  40x50x30 cm  21 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.2208</v>
+        <v>0.54</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>54x  120x80x12 cm  50 kg/plt</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7.0008</v>
-      </c>
-      <c r="B5" t="n">
-        <v>79</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vol2.xlsx
+++ b/vol2.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="B2" t="n">
         <v>24</v>
@@ -479,16 +479,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2x  40x50x60 cm  12 kg/ctn</t>
+          <t>2x  40x50x20 cm  12 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3</v>
+        <v>3.402</v>
       </c>
       <c r="B3" t="n">
-        <v>105</v>
+        <v>2916</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5x  40x50x30 cm  21 kg/ctn</t>
+          <t>54x  20x150x21 cm  54 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.54</v>
+        <v>3.482</v>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
+        <v>2940</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>

--- a/vol2.xlsx
+++ b/vol2.xlsx
@@ -462,10 +462,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08</v>
+        <v>0.348</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>2610</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,16 +479,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2x  40x50x20 cm  12 kg/ctn</t>
+          <t>58x  20x10x30 cm  45 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.402</v>
+        <v>0.9408</v>
       </c>
       <c r="B3" t="n">
-        <v>2916</v>
+        <v>9604</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54x  20x150x21 cm  54 kg/ctn</t>
+          <t>98x  12x40x20 cm  98 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.482</v>
+        <v>1.2888</v>
       </c>
       <c r="B4" t="n">
-        <v>2940</v>
+        <v>12214</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
